--- a/data/trans_bre/P57B_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P57B_R-Clase-trans_bre.xlsx
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>1.582092682868418</v>
+        <v>1.582092682868415</v>
       </c>
       <c r="D4" s="6" t="n">
-        <v>0.2374674253846386</v>
+        <v>0.2374674253846381</v>
       </c>
     </row>
     <row r="5">
@@ -566,10 +566,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.313959075006597</v>
+        <v>-1.511489994676701</v>
       </c>
       <c r="D5" s="6" t="n">
-        <v>-0.1640538694333148</v>
+        <v>-0.1937732979034077</v>
       </c>
     </row>
     <row r="6">
@@ -580,10 +580,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.824964973593408</v>
+        <v>4.812024286643924</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>0.9570521812309306</v>
+        <v>0.9041697680950068</v>
       </c>
     </row>
     <row r="7">
@@ -601,7 +601,7 @@
         <v>2.639912970770618</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.3633224712263721</v>
+        <v>0.3633224712263722</v>
       </c>
     </row>
     <row r="8">
@@ -612,10 +612,10 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.6862334437361008</v>
+        <v>-0.9637780140172242</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.09108232286026954</v>
+        <v>-0.1182214468201821</v>
       </c>
     </row>
     <row r="9">
@@ -626,10 +626,10 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>6.153474599426485</v>
+        <v>6.009471325957323</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.114395720852138</v>
+        <v>1.108003958907884</v>
       </c>
     </row>
     <row r="10">
@@ -644,10 +644,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>5.486915055392137</v>
+        <v>5.486915055392133</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>0.6359315125945099</v>
+        <v>0.6359315125945093</v>
       </c>
     </row>
     <row r="11">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.110807967343416</v>
+        <v>1.297276615473037</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>0.08428178832384081</v>
+        <v>0.1083975971075667</v>
       </c>
     </row>
     <row r="12">
@@ -672,10 +672,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.70277271183904</v>
+        <v>11.16800399440133</v>
       </c>
       <c r="D12" s="6" t="n">
-        <v>1.387260542935141</v>
+        <v>1.497674407450983</v>
       </c>
     </row>
     <row r="13">
@@ -704,10 +704,10 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-2.854272978981433</v>
+        <v>-2.746341120561065</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2111744619446813</v>
+        <v>-0.1999532018602145</v>
       </c>
     </row>
     <row r="15">
@@ -718,10 +718,10 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>2.505565584677488</v>
+        <v>2.586389575269892</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.238844205238829</v>
+        <v>0.2452928502618026</v>
       </c>
     </row>
     <row r="16">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>5.566265179142921</v>
+        <v>5.566265179142926</v>
       </c>
       <c r="D16" s="6" t="n">
-        <v>0.3318551508370662</v>
+        <v>0.3318551508370666</v>
       </c>
     </row>
     <row r="17">
@@ -750,10 +750,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.918194012002501</v>
+        <v>1.621381820821442</v>
       </c>
       <c r="D17" s="6" t="n">
-        <v>0.09651439628590032</v>
+        <v>0.07947276089763051</v>
       </c>
     </row>
     <row r="18">
@@ -764,10 +764,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.285442310325482</v>
+        <v>9.512912850487631</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>0.6563338387132996</v>
+        <v>0.6566134951955401</v>
       </c>
     </row>
     <row r="19">
@@ -785,7 +785,7 @@
         <v>12.64916095776049</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3.170863306584058</v>
+        <v>3.170863306584057</v>
       </c>
     </row>
     <row r="20">
@@ -796,10 +796,10 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>7.095167342244239</v>
+        <v>8.050647366827429</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.6376328310351113</v>
+        <v>0.8526256930397245</v>
       </c>
     </row>
     <row r="21">
@@ -810,10 +810,10 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>15.93180890035464</v>
+        <v>15.88588961310495</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>8.248944637196487</v>
+        <v>8.983231678842024</v>
       </c>
     </row>
     <row r="22">
@@ -842,10 +842,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>2.942266890748654</v>
+        <v>3.055806830761824</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.263222617470592</v>
+        <v>0.2726286172717023</v>
       </c>
     </row>
     <row r="24">
@@ -856,10 +856,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>5.832803761897017</v>
+        <v>5.897982054329882</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.6163762131901651</v>
+        <v>0.6151753820796023</v>
       </c>
     </row>
     <row r="25">
